--- a/DataRefValue.xlsx
+++ b/DataRefValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/jennings_sarah_epa_gov/Documents/Profile/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJENNI01\dev\RVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{8516DF47-4F07-4E31-BEAD-0AF6BC620B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82D90C2-1226-47CC-9B01-B611314BE116}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F220-ADEC-4D27-B9D2-7F79FB7F155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
+    <workbookView xWindow="-28905" yWindow="60" windowWidth="14610" windowHeight="15585" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="96">
   <si>
     <t>AEGL-1</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -279,13 +276,61 @@
   </si>
   <si>
     <t>General Public</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>CatColor</t>
+  </si>
+  <si>
+    <t>MarkColor</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Light Green</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Pale Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Beige</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +366,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,6 +526,13 @@
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{52FD969E-4BC3-473D-A85B-E39CD8EB1077}"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -703,13 +761,6 @@
       </font>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -724,24 +775,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:O61" totalsRowShown="0">
-  <autoFilter ref="A1:O61" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:Q61" totalsRowShown="0">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{765B223E-3008-4C65-8D7D-45FF98AB70EB}" name="RefValue"/>
-    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{4219645A-4D76-4DA2-B85F-72220C65416F}" name="Type"/>
-    <tableColumn id="15" xr3:uid="{F0CD5FB6-E7CE-4F4C-9F21-D9A1E164DCC8}" name="Color"/>
+    <tableColumn id="17" xr3:uid="{272B79C2-042E-4C75-A891-D4C436F04E82}" name="Shape"/>
+    <tableColumn id="19" xr3:uid="{15F1B65F-F07A-4C27-92CE-F8ADE102388D}" name="MarkColor"/>
+    <tableColumn id="15" xr3:uid="{F0CD5FB6-E7CE-4F4C-9F21-D9A1E164DCC8}" name="CatColor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21B303-626C-4027-B174-49D25BE7A0DE}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,11 +1117,11 @@
     <col min="11" max="11" width="11.1796875" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="14"/>
     <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="21.453125" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
@@ -1113,10 +1165,16 @@
         <v>73</v>
       </c>
       <c r="O1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,16 +1211,22 @@
       <c r="L2" s="18"/>
       <c r="M2" s="12"/>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1199,16 +1263,22 @@
       <c r="L3" s="18"/>
       <c r="M3" s="12"/>
       <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,16 +1315,22 @@
       <c r="L4" s="18"/>
       <c r="M4" s="12"/>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1275,13 +1351,19 @@
       <c r="L5" s="18"/>
       <c r="M5" s="12"/>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1302,13 +1384,19 @@
       <c r="L6" s="18"/>
       <c r="M6" s="12"/>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1329,13 +1417,19 @@
       <c r="L7" s="18"/>
       <c r="M7" s="12"/>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1352,13 +1446,19 @@
       <c r="L8" s="18"/>
       <c r="M8" s="12"/>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1375,13 +1475,19 @@
       <c r="L9" s="18"/>
       <c r="M9" s="12"/>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1398,13 +1504,19 @@
       <c r="L10" s="18"/>
       <c r="M10" s="12"/>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1421,13 +1533,19 @@
       <c r="L11" s="18"/>
       <c r="M11" s="12"/>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1444,13 +1562,19 @@
       <c r="L12" s="18"/>
       <c r="M12" s="12"/>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1467,13 +1591,19 @@
       <c r="L13" s="18"/>
       <c r="M13" s="12"/>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1494,13 +1624,19 @@
       <c r="L14" s="18"/>
       <c r="M14" s="12"/>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1521,13 +1657,19 @@
       <c r="L15" s="18"/>
       <c r="M15" s="12"/>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1548,13 +1690,19 @@
       <c r="L16" s="18"/>
       <c r="M16" s="12"/>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1575,13 +1723,19 @@
       <c r="L17" s="18"/>
       <c r="M17" s="12"/>
       <c r="N17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1606,13 +1760,19 @@
       <c r="L18" s="18"/>
       <c r="M18" s="12"/>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1637,13 +1797,19 @@
       <c r="L19" s="18"/>
       <c r="M19" s="12"/>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1660,13 +1826,19 @@
       <c r="L20" s="18"/>
       <c r="M20" s="12"/>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1691,13 +1863,19 @@
       <c r="L21" s="18"/>
       <c r="M21" s="12"/>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1714,13 +1892,19 @@
       <c r="L22" s="18"/>
       <c r="M22" s="12"/>
       <c r="N22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1741,13 +1925,19 @@
       <c r="L23" s="18"/>
       <c r="M23" s="12"/>
       <c r="N23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1770,13 +1960,19 @@
       <c r="L24" s="18"/>
       <c r="M24" s="12"/>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1797,13 +1993,19 @@
       <c r="L25" s="18"/>
       <c r="M25" s="12"/>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1824,13 +2026,19 @@
       <c r="L26" s="18"/>
       <c r="M26" s="12"/>
       <c r="N26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1863,13 +2071,19 @@
       <c r="L27" s="18"/>
       <c r="M27" s="12"/>
       <c r="N27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1894,13 +2108,19 @@
       <c r="L28" s="18"/>
       <c r="M28" s="12"/>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1921,13 +2141,19 @@
       <c r="L29" s="18"/>
       <c r="M29" s="12"/>
       <c r="N29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1968,13 +2194,19 @@
         <v>24000</v>
       </c>
       <c r="N30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2227,19 @@
       <c r="L31" s="18"/>
       <c r="M31" s="12"/>
       <c r="N31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2022,13 +2260,19 @@
       <c r="L32" s="18"/>
       <c r="M32" s="12"/>
       <c r="N32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P32" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2053,13 +2297,19 @@
       <c r="L33" s="18"/>
       <c r="M33" s="12"/>
       <c r="N33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2084,13 +2334,19 @@
       <c r="L34" s="18"/>
       <c r="M34" s="12"/>
       <c r="N34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2115,13 +2371,19 @@
       <c r="L35" s="18"/>
       <c r="M35" s="12"/>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2146,13 +2408,19 @@
       <c r="L36" s="18"/>
       <c r="M36" s="12"/>
       <c r="N36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2177,13 +2445,19 @@
       <c r="L37" s="18"/>
       <c r="M37" s="12"/>
       <c r="N37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2204,13 +2478,19 @@
       <c r="L38" s="18"/>
       <c r="M38" s="12"/>
       <c r="N38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2231,13 +2511,19 @@
       <c r="L39" s="18"/>
       <c r="M39" s="12"/>
       <c r="N39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2263,13 +2549,19 @@
       <c r="L40" s="18"/>
       <c r="M40" s="12"/>
       <c r="N40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2286,13 +2578,19 @@
       <c r="L41" s="18"/>
       <c r="M41" s="12"/>
       <c r="N41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2313,13 +2611,19 @@
       <c r="L42" s="18"/>
       <c r="M42" s="12"/>
       <c r="N42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2344,13 +2648,19 @@
       <c r="L43" s="18"/>
       <c r="M43" s="12"/>
       <c r="N43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2375,13 +2685,19 @@
       <c r="L44" s="18"/>
       <c r="M44" s="12"/>
       <c r="N44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2406,13 +2722,19 @@
       <c r="L45" s="18"/>
       <c r="M45" s="12"/>
       <c r="N45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2433,13 +2755,19 @@
       <c r="L46" s="18"/>
       <c r="M46" s="12"/>
       <c r="N46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2456,13 +2784,19 @@
       <c r="L47" s="18"/>
       <c r="M47" s="12"/>
       <c r="N47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2483,13 +2817,19 @@
       <c r="L48" s="18"/>
       <c r="M48" s="12"/>
       <c r="N48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2515,13 +2855,19 @@
       <c r="L49" s="18"/>
       <c r="M49" s="12"/>
       <c r="N49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>48</v>
       </c>
@@ -2538,13 +2884,19 @@
       <c r="L50" s="18"/>
       <c r="M50" s="12"/>
       <c r="N50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -2585,13 +2937,19 @@
         <v>675000</v>
       </c>
       <c r="N51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
@@ -2616,13 +2974,19 @@
       <c r="L52" s="18"/>
       <c r="M52" s="12"/>
       <c r="N52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -2663,13 +3027,19 @@
         <v>675000</v>
       </c>
       <c r="N53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -2710,13 +3080,19 @@
         <v>675000</v>
       </c>
       <c r="N54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -2757,13 +3133,19 @@
         <v>675000</v>
       </c>
       <c r="N55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2788,13 +3170,19 @@
       <c r="L56" s="18"/>
       <c r="M56" s="12"/>
       <c r="N56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P56" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2819,13 +3207,19 @@
       <c r="L57" s="18"/>
       <c r="M57" s="12"/>
       <c r="N57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="P57" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -2850,13 +3244,19 @@
       <c r="L58" s="18"/>
       <c r="M58" s="12"/>
       <c r="N58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -2881,13 +3281,19 @@
       <c r="L59" s="18"/>
       <c r="M59" s="12"/>
       <c r="N59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P59" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -2913,13 +3319,19 @@
       <c r="L60" s="18"/>
       <c r="M60" s="12"/>
       <c r="N60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="P60" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
@@ -2945,21 +3357,28 @@
       <c r="L61" s="18"/>
       <c r="M61" s="12"/>
       <c r="N61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="P61" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A57:A61">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N61" xr:uid="{B44BD58F-F7D2-4008-8040-6723F35A00A3}">
-      <formula1>$R$2:$R$4</formula1>
+      <formula1>$T$2:$T$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataRefValue.xlsx
+++ b/DataRefValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJENNI01\dev\RVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F220-ADEC-4D27-B9D2-7F79FB7F155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8822C2F2-7F6B-48A4-A162-760B773360DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="60" windowWidth="14610" windowHeight="15585" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
+    <workbookView xWindow="2805" yWindow="3345" windowWidth="14400" windowHeight="11985" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
   <si>
     <t>AEGL-1</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>Beige</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Circle-Open</t>
   </si>
 </sst>
 </file>
@@ -526,13 +538,6 @@
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{52FD969E-4BC3-473D-A85B-E39CD8EB1077}"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -761,6 +766,13 @@
       </font>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -775,24 +787,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:Q61" totalsRowShown="0">
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:R61" totalsRowShown="0">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{765B223E-3008-4C65-8D7D-45FF98AB70EB}" name="RefValue"/>
-    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{4219645A-4D76-4DA2-B85F-72220C65416F}" name="Type"/>
     <tableColumn id="17" xr3:uid="{272B79C2-042E-4C75-A891-D4C436F04E82}" name="Shape"/>
     <tableColumn id="19" xr3:uid="{15F1B65F-F07A-4C27-92CE-F8ADE102388D}" name="MarkColor"/>
+    <tableColumn id="16" xr3:uid="{D2B739B8-699C-42F5-84C4-0913B1A1FDEC}" name="Outline"/>
     <tableColumn id="15" xr3:uid="{F0CD5FB6-E7CE-4F4C-9F21-D9A1E164DCC8}" name="CatColor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1096,32 +1109,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21B303-626C-4027-B174-49D25BE7A0DE}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="14"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="14"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="14"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="14"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="14"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="14"/>
-    <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="16" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="14"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="14"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="14"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="14"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="14"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="14"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="17" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
@@ -1171,10 +1184,13 @@
         <v>86</v>
       </c>
       <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,16 +1233,19 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,13 +1291,16 @@
         <v>87</v>
       </c>
       <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
         <v>74</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1321,16 +1343,19 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
         <v>74</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,10 +1385,13 @@
         <v>74</v>
       </c>
       <c r="Q5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1393,10 +1421,13 @@
         <v>87</v>
       </c>
       <c r="Q6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,10 +1457,13 @@
         <v>88</v>
       </c>
       <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1455,10 +1489,13 @@
         <v>74</v>
       </c>
       <c r="Q8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,10 +1521,13 @@
         <v>87</v>
       </c>
       <c r="Q9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1513,10 +1553,13 @@
         <v>88</v>
       </c>
       <c r="Q10" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1542,10 +1585,13 @@
         <v>74</v>
       </c>
       <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1571,10 +1617,13 @@
         <v>75</v>
       </c>
       <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1600,10 +1649,13 @@
         <v>93</v>
       </c>
       <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1633,10 +1685,13 @@
         <v>93</v>
       </c>
       <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1666,10 +1721,13 @@
         <v>75</v>
       </c>
       <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1699,10 +1757,13 @@
         <v>94</v>
       </c>
       <c r="Q16" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1732,10 +1793,13 @@
         <v>74</v>
       </c>
       <c r="Q17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1769,10 +1833,13 @@
         <v>93</v>
       </c>
       <c r="Q18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1806,10 +1873,13 @@
         <v>75</v>
       </c>
       <c r="Q19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1835,10 +1905,13 @@
         <v>95</v>
       </c>
       <c r="Q20" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1872,10 +1945,13 @@
         <v>95</v>
       </c>
       <c r="Q21" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1901,10 +1977,13 @@
         <v>95</v>
       </c>
       <c r="Q22" t="s">
+        <v>97</v>
+      </c>
+      <c r="R22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1934,10 +2013,13 @@
         <v>94</v>
       </c>
       <c r="Q23" t="s">
+        <v>97</v>
+      </c>
+      <c r="R23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1969,10 +2051,13 @@
         <v>75</v>
       </c>
       <c r="Q24" t="s">
+        <v>97</v>
+      </c>
+      <c r="R24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1996,16 +2081,19 @@
         <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s">
         <v>74</v>
       </c>
       <c r="Q25" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2029,16 +2117,19 @@
         <v>78</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s">
         <v>87</v>
       </c>
       <c r="Q26" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2074,16 +2165,19 @@
         <v>78</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P27" t="s">
         <v>88</v>
       </c>
       <c r="Q27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2117,10 +2211,13 @@
         <v>91</v>
       </c>
       <c r="Q28" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -2150,10 +2247,13 @@
         <v>89</v>
       </c>
       <c r="Q29" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2203,10 +2303,13 @@
         <v>88</v>
       </c>
       <c r="Q30" t="s">
+        <v>97</v>
+      </c>
+      <c r="R30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2236,10 +2339,13 @@
         <v>90</v>
       </c>
       <c r="Q31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2269,10 +2375,13 @@
         <v>90</v>
       </c>
       <c r="Q32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2306,10 +2415,13 @@
         <v>90</v>
       </c>
       <c r="Q33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2343,10 +2455,13 @@
         <v>90</v>
       </c>
       <c r="Q34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2380,10 +2495,13 @@
         <v>76</v>
       </c>
       <c r="Q35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2417,10 +2535,13 @@
         <v>76</v>
       </c>
       <c r="Q36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2454,10 +2575,13 @@
         <v>90</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2487,10 +2611,13 @@
         <v>76</v>
       </c>
       <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2520,10 +2647,13 @@
         <v>76</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2558,10 +2688,13 @@
         <v>76</v>
       </c>
       <c r="Q40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2587,10 +2720,13 @@
         <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2620,10 +2756,13 @@
         <v>92</v>
       </c>
       <c r="Q42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2657,10 +2796,13 @@
         <v>92</v>
       </c>
       <c r="Q43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2694,10 +2836,13 @@
         <v>92</v>
       </c>
       <c r="Q44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2731,10 +2876,13 @@
         <v>92</v>
       </c>
       <c r="Q45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2764,10 +2912,13 @@
         <v>76</v>
       </c>
       <c r="Q46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2793,10 +2944,13 @@
         <v>76</v>
       </c>
       <c r="Q47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2826,10 +2980,13 @@
         <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2864,10 +3021,13 @@
         <v>76</v>
       </c>
       <c r="Q49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>48</v>
       </c>
@@ -2893,10 +3053,13 @@
         <v>76</v>
       </c>
       <c r="Q50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -2946,10 +3109,13 @@
         <v>76</v>
       </c>
       <c r="Q51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
@@ -2983,10 +3149,13 @@
         <v>76</v>
       </c>
       <c r="Q52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -3036,10 +3205,13 @@
         <v>76</v>
       </c>
       <c r="Q53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -3089,10 +3261,13 @@
         <v>76</v>
       </c>
       <c r="Q54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -3142,10 +3317,13 @@
         <v>76</v>
       </c>
       <c r="Q55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -3179,10 +3357,13 @@
         <v>76</v>
       </c>
       <c r="Q56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3216,10 +3397,13 @@
         <v>90</v>
       </c>
       <c r="Q57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -3253,10 +3437,13 @@
         <v>88</v>
       </c>
       <c r="Q58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -3290,10 +3477,13 @@
         <v>87</v>
       </c>
       <c r="Q59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -3328,10 +3518,13 @@
         <v>76</v>
       </c>
       <c r="Q60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="R60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
@@ -3366,19 +3559,22 @@
         <v>89</v>
       </c>
       <c r="Q61" t="s">
+        <v>98</v>
+      </c>
+      <c r="R61" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A57:A61">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N61" xr:uid="{B44BD58F-F7D2-4008-8040-6723F35A00A3}">
-      <formula1>$T$2:$T$4</formula1>
+      <formula1>$U$2:$U$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataRefValue.xlsx
+++ b/DataRefValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJENNI01\dev\RVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8822C2F2-7F6B-48A4-A162-760B773360DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EDDBE-8464-4937-A1E4-6EAE268E8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3345" windowWidth="14400" windowHeight="11985" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
+    <workbookView xWindow="43095" yWindow="-1875" windowWidth="14610" windowHeight="15585" xr2:uid="{F35416F2-6AE6-41D6-8D54-D88B766F1951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="107">
   <si>
     <t>AEGL-1</t>
   </si>
@@ -336,6 +336,27 @@
   </si>
   <si>
     <t>Circle-Open</t>
+  </si>
+  <si>
+    <t>LineDash</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dashdot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dash </t>
+  </si>
+  <si>
+    <t>Dot</t>
+  </si>
+  <si>
+    <t>Dash</t>
   </si>
 </sst>
 </file>
@@ -538,6 +559,13 @@
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{52FD969E-4BC3-473D-A85B-E39CD8EB1077}"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -766,13 +794,6 @@
       </font>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -787,24 +808,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:R61" totalsRowShown="0">
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10E75E4B-5090-4C16-85F8-1BBCFC676D7C}" name="Table1" displayName="Table1" ref="A1:S61" totalsRowShown="0">
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{765B223E-3008-4C65-8D7D-45FF98AB70EB}" name="RefValue"/>
-    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FF36F16C-63A9-4B0E-B348-50CE6E8F3348}" name="Value1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CBBD1EDB-F02C-47C0-B15E-BE36D2FE9648}" name="Duration1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3079463E-09D8-4A1C-B1F4-F64E1FD3D336}" name="Value2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0BB7A341-10B1-49AF-9A6A-8306A01E5441}" name="Duration2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8C60ABEA-0804-4A7D-8B7D-DED7A96073C7}" name="Value3" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{99F76B4C-4F8E-468A-BADA-AB9B5D93F737}" name="Duration3" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A3885031-02FB-4552-8611-CFC64B5B2633}" name="Value4" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2BE87C06-EFFC-4951-AD28-A159B0262DF5}" name="Duration4" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{99F37FBF-F17A-4ED8-9A1A-D1018D6C8E88}" name="Value5" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0F306807-BE7B-4C46-BDE3-B18D6716ADCC}" name="Duration5" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FE2371C7-8873-42BB-AE5A-CC5250563E6F}" name="Value6" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{16B48072-AFE2-46DF-9B63-EF74C4CF0784}" name="Duration6" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{4219645A-4D76-4DA2-B85F-72220C65416F}" name="Type"/>
     <tableColumn id="17" xr3:uid="{272B79C2-042E-4C75-A891-D4C436F04E82}" name="Shape"/>
     <tableColumn id="19" xr3:uid="{15F1B65F-F07A-4C27-92CE-F8ADE102388D}" name="MarkColor"/>
+    <tableColumn id="18" xr3:uid="{3E1BADE8-8A9B-4C3F-87FC-4CE9BF9E203B}" name="LineDash"/>
     <tableColumn id="16" xr3:uid="{D2B739B8-699C-42F5-84C4-0913B1A1FDEC}" name="Outline"/>
     <tableColumn id="15" xr3:uid="{F0CD5FB6-E7CE-4F4C-9F21-D9A1E164DCC8}" name="CatColor"/>
   </tableColumns>
@@ -1109,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21B303-626C-4027-B174-49D25BE7A0DE}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:O27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1156,7 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
@@ -1184,13 +1206,16 @@
         <v>86</v>
       </c>
       <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,16 +1261,19 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
         <v>74</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1291,16 +1319,19 @@
         <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" t="s">
         <v>74</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1346,16 +1377,19 @@
         <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" t="s">
         <v>74</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1385,13 +1419,16 @@
         <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R5" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1421,13 +1458,16 @@
         <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1457,13 +1497,16 @@
         <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,13 +1532,16 @@
         <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1521,13 +1567,16 @@
         <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1553,13 +1602,16 @@
         <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1585,13 +1637,16 @@
         <v>74</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1617,13 +1672,16 @@
         <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1649,13 +1707,16 @@
         <v>93</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1685,13 +1746,16 @@
         <v>93</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1721,13 +1785,16 @@
         <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1757,13 +1824,16 @@
         <v>94</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1793,13 +1863,16 @@
         <v>74</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1833,13 +1906,16 @@
         <v>93</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1873,13 +1949,16 @@
         <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1905,13 +1984,16 @@
         <v>95</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1945,13 +2027,16 @@
         <v>95</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="R21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1977,13 +2062,16 @@
         <v>95</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R22" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2013,13 +2101,16 @@
         <v>94</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R23" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2051,13 +2142,16 @@
         <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="R24" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2087,13 +2181,16 @@
         <v>74</v>
       </c>
       <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
         <v>98</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2123,13 +2220,16 @@
         <v>87</v>
       </c>
       <c r="Q26" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" t="s">
         <v>98</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2171,13 +2271,16 @@
         <v>88</v>
       </c>
       <c r="Q27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" t="s">
         <v>98</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2211,13 +2314,16 @@
         <v>91</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R28" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -2247,13 +2353,16 @@
         <v>89</v>
       </c>
       <c r="Q29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2303,13 +2412,16 @@
         <v>88</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R30" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2339,13 +2451,16 @@
         <v>90</v>
       </c>
       <c r="Q31" t="s">
+        <v>102</v>
+      </c>
+      <c r="R31" t="s">
         <v>98</v>
       </c>
-      <c r="R31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2375,13 +2490,16 @@
         <v>90</v>
       </c>
       <c r="Q32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" t="s">
         <v>98</v>
       </c>
-      <c r="R32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2415,13 +2533,16 @@
         <v>90</v>
       </c>
       <c r="Q33" t="s">
+        <v>106</v>
+      </c>
+      <c r="R33" t="s">
         <v>98</v>
       </c>
-      <c r="R33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2455,13 +2576,16 @@
         <v>90</v>
       </c>
       <c r="Q34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R34" t="s">
         <v>98</v>
       </c>
-      <c r="R34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2495,13 +2619,16 @@
         <v>76</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2535,13 +2662,16 @@
         <v>76</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2575,13 +2705,16 @@
         <v>90</v>
       </c>
       <c r="Q37" t="s">
+        <v>101</v>
+      </c>
+      <c r="R37" t="s">
         <v>98</v>
       </c>
-      <c r="R37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2611,13 +2744,16 @@
         <v>76</v>
       </c>
       <c r="Q38" t="s">
+        <v>102</v>
+      </c>
+      <c r="R38" t="s">
         <v>98</v>
       </c>
-      <c r="R38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2647,13 +2783,16 @@
         <v>76</v>
       </c>
       <c r="Q39" t="s">
+        <v>102</v>
+      </c>
+      <c r="R39" t="s">
         <v>98</v>
       </c>
-      <c r="R39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2688,13 +2827,16 @@
         <v>76</v>
       </c>
       <c r="Q40" t="s">
+        <v>101</v>
+      </c>
+      <c r="R40" t="s">
         <v>98</v>
       </c>
-      <c r="R40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2720,13 +2862,16 @@
         <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2756,13 +2901,16 @@
         <v>92</v>
       </c>
       <c r="Q42" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2796,13 +2944,16 @@
         <v>92</v>
       </c>
       <c r="Q43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2836,13 +2987,16 @@
         <v>92</v>
       </c>
       <c r="Q44" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2876,13 +3030,16 @@
         <v>92</v>
       </c>
       <c r="Q45" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2912,13 +3069,16 @@
         <v>76</v>
       </c>
       <c r="Q46" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2944,13 +3104,16 @@
         <v>76</v>
       </c>
       <c r="Q47" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2980,13 +3143,16 @@
         <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -3021,13 +3187,16 @@
         <v>76</v>
       </c>
       <c r="Q49" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>48</v>
       </c>
@@ -3053,13 +3222,16 @@
         <v>76</v>
       </c>
       <c r="Q50" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -3109,13 +3281,16 @@
         <v>76</v>
       </c>
       <c r="Q51" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
@@ -3149,13 +3324,16 @@
         <v>76</v>
       </c>
       <c r="Q52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -3205,13 +3383,16 @@
         <v>76</v>
       </c>
       <c r="Q53" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -3261,13 +3442,16 @@
         <v>76</v>
       </c>
       <c r="Q54" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -3317,13 +3501,16 @@
         <v>76</v>
       </c>
       <c r="Q55" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -3357,13 +3544,16 @@
         <v>76</v>
       </c>
       <c r="Q56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3397,13 +3587,16 @@
         <v>90</v>
       </c>
       <c r="Q57" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -3437,13 +3630,16 @@
         <v>88</v>
       </c>
       <c r="Q58" t="s">
+        <v>101</v>
+      </c>
+      <c r="R58" t="s">
         <v>98</v>
       </c>
-      <c r="R58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -3477,13 +3673,16 @@
         <v>87</v>
       </c>
       <c r="Q59" t="s">
+        <v>101</v>
+      </c>
+      <c r="R59" t="s">
         <v>98</v>
       </c>
-      <c r="R59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -3518,13 +3717,16 @@
         <v>76</v>
       </c>
       <c r="Q60" t="s">
+        <v>101</v>
+      </c>
+      <c r="R60" t="s">
         <v>98</v>
       </c>
-      <c r="R60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
@@ -3559,22 +3761,25 @@
         <v>89</v>
       </c>
       <c r="Q61" t="s">
+        <v>101</v>
+      </c>
+      <c r="R61" t="s">
         <v>98</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A57:A61">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N61" xr:uid="{B44BD58F-F7D2-4008-8040-6723F35A00A3}">
-      <formula1>$U$2:$U$4</formula1>
+      <formula1>$V$2:$V$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
